--- a/excels/tbl_gula_header.xlsx
+++ b/excels/tbl_gula_header.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15019" uniqueCount="2878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15049" uniqueCount="2887">
   <si>
     <t>2019-10-22</t>
   </si>
@@ -8647,6 +8647,33 @@
   </si>
   <si>
     <t>09:06:52.0000000</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>L 8867 UM</t>
+  </si>
+  <si>
+    <t>08:52:15.0000000</t>
+  </si>
+  <si>
+    <t>09:11:19.0000000</t>
+  </si>
+  <si>
+    <t>09:40:10.0000000</t>
+  </si>
+  <si>
+    <t>R 1996 EC</t>
+  </si>
+  <si>
+    <t>09:47:17.0000000</t>
+  </si>
+  <si>
+    <t>L 8900 UV</t>
+  </si>
+  <si>
+    <t>10:21:51.0000000</t>
   </si>
 </sst>
 </file>
@@ -8697,7 +8724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2067"/>
+  <dimension ref="A1:T2072"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -90831,6 +90858,181 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068">
+        <v>3068</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>2879</v>
+      </c>
+      <c r="E2068" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2068" s="1">
+        <v>44134.369780092595</v>
+      </c>
+      <c r="K2068">
+        <v>5</v>
+      </c>
+      <c r="N2068">
+        <v>1</v>
+      </c>
+      <c r="O2068" t="s">
+        <v>2880</v>
+      </c>
+      <c r="P2068" t="s">
+        <v>1393</v>
+      </c>
+      <c r="T2068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069">
+        <v>3069</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2069" s="1">
+        <v>44134.383020833338</v>
+      </c>
+      <c r="K2069">
+        <v>5</v>
+      </c>
+      <c r="N2069">
+        <v>1</v>
+      </c>
+      <c r="O2069" t="s">
+        <v>2881</v>
+      </c>
+      <c r="P2069" t="s">
+        <v>1393</v>
+      </c>
+      <c r="T2069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070">
+        <v>3070</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>490</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2070" s="1">
+        <v>44134.403009259266</v>
+      </c>
+      <c r="K2070">
+        <v>5</v>
+      </c>
+      <c r="N2070">
+        <v>1</v>
+      </c>
+      <c r="O2070" t="s">
+        <v>2882</v>
+      </c>
+      <c r="P2070" t="s">
+        <v>1393</v>
+      </c>
+      <c r="T2070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071">
+        <v>3071</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2071" s="1">
+        <v>44134.407951388886</v>
+      </c>
+      <c r="K2071">
+        <v>5</v>
+      </c>
+      <c r="N2071">
+        <v>1</v>
+      </c>
+      <c r="O2071" t="s">
+        <v>2884</v>
+      </c>
+      <c r="P2071" t="s">
+        <v>1393</v>
+      </c>
+      <c r="T2071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072">
+        <v>3072</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2072" s="1">
+        <v>44134.431944444441</v>
+      </c>
+      <c r="K2072">
+        <v>5</v>
+      </c>
+      <c r="N2072">
+        <v>1</v>
+      </c>
+      <c r="O2072" t="s">
+        <v>2886</v>
+      </c>
+      <c r="P2072" t="s">
+        <v>1393</v>
+      </c>
+      <c r="T2072">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>